--- a/checklists/Ввод некорректных данных.xlsx
+++ b/checklists/Ввод некорректных данных.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frAk1R\git\QA\checklists\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68EB857-6553-458B-8FF5-67A88BB47919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="26835" windowHeight="13110"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27735" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -120,8 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,12 +160,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -170,15 +191,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -188,6 +212,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +298,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +350,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -475,287 +543,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="A2:B34"/>
+      <selection activeCell="A2" sqref="A2:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="118.42578125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="118.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="25.5">
-      <c r="A2" s="3">
+    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="25.5">
-      <c r="A11" s="3">
+    <row r="11" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="25.5">
-      <c r="A18" s="3">
+    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="25.5">
-      <c r="A21" s="3">
+    <row r="21" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="25.5">
-      <c r="A22" s="3">
+    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="25.5">
-      <c r="A23" s="3">
+    <row r="23" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="25.5">
-      <c r="A24" s="3">
+    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="25.5">
-      <c r="A25" s="3">
+    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="25.5">
-      <c r="A26" s="3">
+    <row r="26" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="38.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="25.5">
-      <c r="A28" s="3">
+    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="51">
-      <c r="A30" s="3">
+    <row r="30" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5">
-      <c r="A33" s="3">
+    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="25.5">
-      <c r="A34" s="3">
+    <row r="34" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="http://live.hh.ru”/"/>
+    <hyperlink ref="B13" r:id="rId1" display="http://live.hh.ru”/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -763,24 +831,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
